--- a/SizingBlock.xlsx
+++ b/SizingBlock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\timot\Documents\Projects\Git\Wishbone-Forces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F42FF34E-31A7-4D4F-9E07-18C57FC0C25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8996C61E-EAD5-4722-AD80-4414D0C92DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="7956" windowWidth="23256" windowHeight="12576" xr2:uid="{FD2C7917-8F8E-4DEE-83B5-F5CF305EFE39}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{FD2C7917-8F8E-4DEE-83B5-F5CF305EFE39}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -176,9 +176,6 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -187,6 +184,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,320 +504,320 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>210000000000</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>240000000</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="2" t="s">
+      <c r="I3" s="9"/>
+      <c r="J3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>275</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>278</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>391</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>436</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>584</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <v>329</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>5</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>5</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>5</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>5</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>5</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <v>5</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="6" t="e">
-        <f t="shared" ref="F6:K6" si="0">-#REF!*(F4/1000)^2/(PI()^2*$C$17)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G6" s="6" t="e">
-        <f t="shared" ref="G6:L6" si="1">-#REF!*(G4/1000)^2/(PI()^2*$C$17)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H6" s="6" t="e">
-        <f t="shared" ref="H6:M6" si="2">-#REF!*(H4/1000)^2/(PI()^2*$C$17)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I6" s="6" t="e">
-        <f t="shared" ref="I6:M6" si="3">-#REF!*(I4/1000)^2/(PI()^2*$C$17)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J6" s="6" t="e">
-        <f t="shared" ref="J6:M6" si="4">-#REF!*(J4/1000)^2/(PI()^2*$C$17)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K6" s="6" t="e">
-        <f t="shared" ref="K6:M6" si="5">-#REF!*(K4/1000)^2/(PI()^2*$C$17)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M6" s="7" t="s">
+      <c r="F6" s="5" t="e">
+        <f>-#REF!*(F4/1000)^2/(PI()^2*$B$2/$B$5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G6" s="5" t="e">
+        <f>-#REF!*(G4/1000)^2/(PI()^2*$B$2/$B$5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H6" s="5" t="e">
+        <f>-#REF!*(H4/1000)^2/(PI()^2*$B$2/$B$5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I6" s="5" t="e">
+        <f>-#REF!*(I4/1000)^2/(PI()^2*$B$2/$B$5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J6" s="5" t="e">
+        <f>-#REF!*(J4/1000)^2/(PI()^2*$B$2/$B$5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K6" s="5" t="e">
+        <f>-#REF!*(K4/1000)^2/(PI()^2*$B$2/$B$5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>2</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="8" t="e">
-        <f t="shared" ref="F7:I7" si="6">IF(F6&gt;0,(2*F6*$C$20/PI()+(F5/1000)^4)^0.25*1000,"Tension only")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G7" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H7" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I7" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J7" s="8" t="e">
-        <f>IF(J6&gt;0,(2*J6*$C$20/PI()+(J5/1000)^4)^0.25*1000,"Tension only")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K7" s="8" t="e">
-        <f>IF(K6&gt;0,(2*K6*$C$20/PI()+(K5/1000)^4)^0.25*1000,"Tension only")</f>
+      <c r="F7" s="7" t="e">
+        <f>IF(F6&gt;0,(2*F6*$B$2/PI()+(F5/1000)^4)^0.25*1000,"Tension only")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G7" s="7" t="e">
+        <f t="shared" ref="G7:K7" si="0">IF(G6&gt;0,(2*G6*$B$2/PI()+(G5/1000)^4)^0.25*1000,"Tension only")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H7" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I7" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J7" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="K7" s="7" t="e">
+        <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="6" t="e">
-        <f t="shared" ref="F8:K8" si="7">#REF!/$C$18</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G8" s="6" t="e">
-        <f t="shared" ref="G8:L8" si="8">#REF!/$C$18</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H8" s="6" t="e">
-        <f t="shared" ref="H8:M8" si="9">#REF!/$C$18</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I8" s="6" t="e">
-        <f t="shared" ref="I8:M8" si="10">#REF!/$C$18</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J8" s="6" t="e">
-        <f t="shared" ref="J8:M8" si="11">#REF!/$C$18</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K8" s="6" t="e">
-        <f t="shared" ref="K8:M8" si="12">#REF!/$C$18</f>
+      <c r="F8" s="5" t="e">
+        <f t="shared" ref="F8" si="1">#REF!/$C$18</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G8" s="5" t="e">
+        <f t="shared" ref="G8" si="2">#REF!/$C$18</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H8" s="5" t="e">
+        <f t="shared" ref="H8" si="3">#REF!/$C$18</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I8" s="5" t="e">
+        <f t="shared" ref="I8" si="4">#REF!/$C$18</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J8" s="5" t="e">
+        <f t="shared" ref="J8" si="5">#REF!/$C$18</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K8" s="5" t="e">
+        <f t="shared" ref="K8" si="6">#REF!/$C$18</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="8" t="e">
+      <c r="F9" s="7" t="e">
         <f>(4*F8*$C$21/PI()+(F5/1000)^2)^0.5*1000</f>
         <v>#REF!</v>
       </c>
-      <c r="G9" s="8" t="e">
-        <f t="shared" ref="G9:K9" si="13">(4*G8*$C$21/PI()+(G5/1000)^2)^0.5*1000</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H9" s="8" t="e">
-        <f t="shared" si="13"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I9" s="8" t="e">
-        <f t="shared" si="13"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J9" s="8" t="e">
-        <f t="shared" si="13"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K9" s="8" t="e">
-        <f t="shared" si="13"/>
+      <c r="G9" s="7" t="e">
+        <f t="shared" ref="G9:K9" si="7">(4*G8*$C$21/PI()+(G5/1000)^2)^0.5*1000</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H9" s="7" t="e">
+        <f t="shared" si="7"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I9" s="7" t="e">
+        <f t="shared" si="7"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J9" s="7" t="e">
+        <f t="shared" si="7"/>
+        <v>#REF!</v>
+      </c>
+      <c r="K9" s="7" t="e">
+        <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="9" t="e">
-        <f t="shared" ref="F10:K10" si="14">MAX(F9,F7)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G10" s="9" t="e">
-        <f t="shared" si="14"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H10" s="9" t="e">
-        <f t="shared" si="14"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I10" s="9" t="e">
-        <f t="shared" si="14"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J10" s="9" t="e">
-        <f t="shared" si="14"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K10" s="9" t="e">
-        <f t="shared" si="14"/>
+      <c r="F10" s="8" t="e">
+        <f t="shared" ref="F10:K10" si="8">MAX(F9,F7)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G10" s="8" t="e">
+        <f t="shared" si="8"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H10" s="8" t="e">
+        <f t="shared" si="8"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I10" s="8" t="e">
+        <f t="shared" si="8"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J10" s="8" t="e">
+        <f t="shared" si="8"/>
+        <v>#REF!</v>
+      </c>
+      <c r="K10" s="8" t="e">
+        <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F13" s="7" t="e">
+      <c r="F13" s="6" t="e">
         <f>MAX(ABS(#REF!),ABS(#REF!))*$C$22</f>
         <v>#REF!</v>
       </c>
-      <c r="G13" s="7" t="e">
-        <f t="shared" ref="G13:M13" si="15">MAX(ABS(#REF!),ABS(#REF!))*$C$22</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H13" s="7" t="e">
-        <f t="shared" ref="H13:M13" si="16">MAX(ABS(#REF!),ABS(#REF!))*$C$22</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I13" s="7" t="e">
-        <f t="shared" ref="I13:M13" si="17">MAX(ABS(#REF!),ABS(#REF!))*$C$22</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7" t="e">
-        <f t="shared" ref="L13:M13" si="18">MAX(ABS(#REF!),ABS(#REF!))*$C$22</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M13" s="7" t="e">
-        <f t="shared" ref="M13" si="19">MAX(ABS(#REF!),ABS(#REF!))*$C$22</f>
+      <c r="G13" s="6" t="e">
+        <f t="shared" ref="G13" si="9">MAX(ABS(#REF!),ABS(#REF!))*$C$22</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H13" s="6" t="e">
+        <f t="shared" ref="H13" si="10">MAX(ABS(#REF!),ABS(#REF!))*$C$22</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I13" s="6" t="e">
+        <f t="shared" ref="I13" si="11">MAX(ABS(#REF!),ABS(#REF!))*$C$22</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6" t="e">
+        <f t="shared" ref="L13" si="12">MAX(ABS(#REF!),ABS(#REF!))*$C$22</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M13" s="6" t="e">
+        <f t="shared" ref="M13" si="13">MAX(ABS(#REF!),ABS(#REF!))*$C$22</f>
         <v>#REF!</v>
       </c>
     </row>

--- a/SizingBlock.xlsx
+++ b/SizingBlock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\timot\Documents\Projects\Git\Wishbone-Forces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8996C61E-EAD5-4722-AD80-4414D0C92DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020486E4-17CF-43AF-B574-DAB13510AB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{FD2C7917-8F8E-4DEE-83B5-F5CF305EFE39}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>^ Forces go here ^</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Buckle safety factor</t>
   </si>
   <si>
-    <t>Inner diameter/mm</t>
-  </si>
-  <si>
     <t>Intermediate</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
     <t>Bearing safety factor</t>
   </si>
   <si>
-    <t>Required outer diameter/mm</t>
-  </si>
-  <si>
     <t>Tension</t>
   </si>
   <si>
@@ -104,10 +98,19 @@
     <t>Overall</t>
   </si>
   <si>
-    <t>Critical Outer Diameter/mm</t>
-  </si>
-  <si>
     <t>Rod ends and spherical bearings - load requirements</t>
+  </si>
+  <si>
+    <t>Outer diameter/mm</t>
+  </si>
+  <si>
+    <t>Outer radius/m</t>
+  </si>
+  <si>
+    <t>Required thickness/mm</t>
+  </si>
+  <si>
+    <t>Critical Thickness/mm</t>
   </si>
 </sst>
 </file>
@@ -501,332 +504,362 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7730BFD9-F0B8-4067-80C4-8C34C621B0DC}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="B1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F1" s="9" t="s">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="9"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="N1" s="9"/>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="C2" s="2">
         <v>210000000000</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C3" s="2">
         <v>240000000</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="9"/>
+      <c r="I3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="9"/>
+      <c r="K3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E4" s="1" t="s">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
         <v>275</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
         <v>278</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <v>391</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
         <v>436</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="3">
         <v>584</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="3">
         <v>329</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="3">
         <v>10</v>
       </c>
-      <c r="B5" s="3">
+      <c r="H5" s="3">
+        <v>10</v>
+      </c>
+      <c r="I5" s="3">
+        <v>15</v>
+      </c>
+      <c r="J5" s="3">
+        <v>16</v>
+      </c>
+      <c r="K5" s="3">
+        <v>10</v>
+      </c>
+      <c r="L5" s="3">
+        <v>10</v>
+      </c>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3">
         <v>2</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="4">
+        <f>G5/2000</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" ref="H6:L6" si="0">H5/2000</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L6" s="4">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="3">
-        <v>5</v>
-      </c>
-      <c r="G5" s="3">
-        <v>5</v>
-      </c>
-      <c r="H5" s="3">
-        <v>5</v>
-      </c>
-      <c r="I5" s="3">
-        <v>5</v>
-      </c>
-      <c r="J5" s="3">
-        <v>5</v>
-      </c>
-      <c r="K5" s="3">
-        <v>5</v>
-      </c>
-      <c r="M5" s="4" t="s">
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3">
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="5" t="e">
+        <f>-#REF!*(G4/1000)^2/(PI()^2*$C2/$C6)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H7" s="5" t="e">
+        <f t="shared" ref="H7:L7" si="1">-#REF!*(H4/1000)^2/(PI()^2*$C2/$C6)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I7" s="5" t="e">
+        <f t="shared" ref="I7:M7" si="2">-#REF!*(I4/1000)^2/(PI()^2*$C2/$C6)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J7" s="5" t="e">
+        <f t="shared" ref="J7:N7" si="3">-#REF!*(J4/1000)^2/(PI()^2*$C2/$C6)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K7" s="5" t="e">
+        <f t="shared" ref="K7:N7" si="4">-#REF!*(K4/1000)^2/(PI()^2*$C2/$C6)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L7" s="5" t="e">
+        <f t="shared" ref="L7:N7" si="5">-#REF!*(L4/1000)^2/(PI()^2*$C2/$C6)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3">
         <v>2</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="5" t="e">
-        <f>-#REF!*(F4/1000)^2/(PI()^2*$B$2/$B$5)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G6" s="5" t="e">
-        <f>-#REF!*(G4/1000)^2/(PI()^2*$B$2/$B$5)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H6" s="5" t="e">
-        <f>-#REF!*(H4/1000)^2/(PI()^2*$B$2/$B$5)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I6" s="5" t="e">
-        <f>-#REF!*(I4/1000)^2/(PI()^2*$B$2/$B$5)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J6" s="5" t="e">
-        <f>-#REF!*(J4/1000)^2/(PI()^2*$B$2/$B$5)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K6" s="5" t="e">
-        <f>-#REF!*(K4/1000)^2/(PI()^2*$B$2/$B$5)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="7" t="e">
+        <f>IF(G7&gt;0,(G6-((-G7+PI() * (G6)^4/4)*4/PI())^0.25)*1000,"Tension only")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H8" s="7" t="e">
+        <f t="shared" ref="H8:L8" si="6">IF(H7&gt;0,(H6-((-H7+PI() * (H6)^4/4)*4/PI())^0.25)*1000,"Tension only")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I8" s="7" t="e">
+        <f t="shared" si="6"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J8" s="7" t="e">
+        <f t="shared" si="6"/>
+        <v>#REF!</v>
+      </c>
+      <c r="K8" s="7" t="e">
+        <f t="shared" si="6"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L8" s="7" t="e">
+        <f t="shared" si="6"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="3">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="7" t="e">
-        <f>IF(F6&gt;0,(2*F6*$B$2/PI()+(F5/1000)^4)^0.25*1000,"Tension only")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G7" s="7" t="e">
-        <f t="shared" ref="G7:K7" si="0">IF(G6&gt;0,(2*G6*$B$2/PI()+(G5/1000)^4)^0.25*1000,"Tension only")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H7" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I7" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J7" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K7" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D8" s="1" t="s">
+      <c r="G9" s="5" t="e">
+        <f t="shared" ref="G9:L9" si="7">#REF!/$C3*$C7</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H9" s="5" t="e">
+        <f t="shared" ref="H9:M9" si="8">#REF!/$C3*$C7</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I9" s="5" t="e">
+        <f t="shared" ref="I9:N9" si="9">#REF!/$C3*$C7</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J9" s="5" t="e">
+        <f t="shared" ref="J9:N9" si="10">#REF!/$C3*$C7</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K9" s="5" t="e">
+        <f t="shared" ref="K9:N9" si="11">#REF!/$C3*$C7</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L9" s="5" t="e">
+        <f t="shared" ref="L9:N9" si="12">#REF!/$C3*$C7</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="F10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="7" t="e">
+        <f>(G6-(G6^2-G9/PI())^0.5)*1000</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H10" s="7" t="e">
+        <f t="shared" ref="H10:L10" si="13">(H6-(H6^2-H9/PI())^0.5)*1000</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I10" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J10" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#REF!</v>
+      </c>
+      <c r="K10" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L10" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="8" t="e">
+        <f t="shared" ref="G11:L11" si="14">MAX(G10,G8)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H11" s="8" t="e">
+        <f t="shared" si="14"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I11" s="8" t="e">
+        <f t="shared" si="14"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J11" s="8" t="e">
+        <f t="shared" si="14"/>
+        <v>#REF!</v>
+      </c>
+      <c r="K11" s="8" t="e">
+        <f t="shared" si="14"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L11" s="8" t="e">
+        <f t="shared" si="14"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="5" t="e">
-        <f t="shared" ref="F8" si="1">#REF!/$C$18</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G8" s="5" t="e">
-        <f t="shared" ref="G8" si="2">#REF!/$C$18</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H8" s="5" t="e">
-        <f t="shared" ref="H8" si="3">#REF!/$C$18</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I8" s="5" t="e">
-        <f t="shared" ref="I8" si="4">#REF!/$C$18</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J8" s="5" t="e">
-        <f t="shared" ref="J8" si="5">#REF!/$C$18</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K8" s="5" t="e">
-        <f t="shared" ref="K8" si="6">#REF!/$C$18</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="7" t="e">
-        <f>(4*F8*$C$21/PI()+(F5/1000)^2)^0.5*1000</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G9" s="7" t="e">
-        <f t="shared" ref="G9:K9" si="7">(4*G8*$C$21/PI()+(G5/1000)^2)^0.5*1000</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H9" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I9" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J9" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K9" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="8" t="e">
-        <f t="shared" ref="F10:K10" si="8">MAX(F9,F7)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G10" s="8" t="e">
-        <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H10" s="8" t="e">
-        <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I10" s="8" t="e">
-        <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J10" s="8" t="e">
-        <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K10" s="8" t="e">
-        <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F13" s="6" t="e">
-        <f>MAX(ABS(#REF!),ABS(#REF!))*$C$22</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G13" s="6" t="e">
-        <f t="shared" ref="G13" si="9">MAX(ABS(#REF!),ABS(#REF!))*$C$22</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H13" s="6" t="e">
-        <f t="shared" ref="H13" si="10">MAX(ABS(#REF!),ABS(#REF!))*$C$22</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I13" s="6" t="e">
-        <f t="shared" ref="I13" si="11">MAX(ABS(#REF!),ABS(#REF!))*$C$22</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6" t="e">
-        <f t="shared" ref="L13" si="12">MAX(ABS(#REF!),ABS(#REF!))*$C$22</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M13" s="6" t="e">
-        <f t="shared" ref="M13" si="13">MAX(ABS(#REF!),ABS(#REF!))*$C$22</f>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G14" s="6" t="e">
+        <f>MAX(ABS(#REF!),ABS(#REF!))*$C8</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H14" s="6" t="e">
+        <f t="shared" ref="H14:J14" si="15">MAX(ABS(#REF!),ABS(#REF!))*$C8</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I14" s="6" t="e">
+        <f t="shared" ref="I14:K14" si="16">MAX(ABS(#REF!),ABS(#REF!))*$C8</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J14" s="6" t="e">
+        <f t="shared" ref="J14:L14" si="17">MAX(ABS(#REF!),ABS(#REF!))*$C8</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6" t="e">
+        <f>MAX(ABS(#REF!),ABS(#REF!))*$C8</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N14" s="6" t="e">
+        <f>MAX(ABS(#REF!),ABS(#REF!))*$C8</f>
         <v>#REF!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="F12:M12"/>
+    <mergeCell ref="G13:N13"/>
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
